--- a/BalanceSheet/CCK_bal.xlsx
+++ b/BalanceSheet/CCK_bal.xlsx
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C20" s="0" t="n">
-        <v>33000000.0</v>
+        <v>151000000.0</v>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
